--- a/biology/Botanique/Picris_hieracioides/Picris_hieracioides.xlsx
+++ b/biology/Botanique/Picris_hieracioides/Picris_hieracioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picride fausse épervière
 La Picride fausse épervière ou Picris fausse épervière (Picris hieracioides L.) est une espèce de plante à fleurs de la famille des astéracées, de la sous-famille des Cichorioideae (syn.Lactucoidea) et de la tribu des Cichorieae (syn. Lactuceae).
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée rameuse à la tige feuillée haute de 30 à environ 100 cm
 Feuilles allongées sinuées, dentées ou entières, pubescentes.
-Les bractées extérieures sont demi-étalées. Les languettes du pourtour sont rougeâtre dessous[1].
-Feuilles luisantes, embrassant la tige en pointe sagittée[1].
+Les bractées extérieures sont demi-étalées. Les languettes du pourtour sont rougeâtre dessous.
+Feuilles luisantes, embrassant la tige en pointe sagittée.
 Floraison de juillet à octobre.
 			Caractéristiques.
 			Inflorescence.
@@ -552,7 +566,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultures, friches, bords de chemins, prés.
 </t>
@@ -583,7 +599,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe médiane et méridionale. Espèce à l'origine considérée comme peu fréquente en France mais dont l'aire semble s'étendre vers l'Est de l'Europe où elle devient adventice.
 </t>
@@ -614,7 +632,9 @@
           <t>Utilisation culinaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est désignée par certains jardiniers comme étant une « mauvaise herbe », car elle pousse au milieu des pelouses. Cependant, son goût tendant vers le sucré lui confère un usage culinaire. Elle peut s'utiliser seule ou accompagnée d'autres plantes spontanées. Si les feuilles sont excessivement duveteuses, on pourra les faire bouillir avec des pommes-de-terre, ou les sauter à la poêle.
 </t>
@@ -645,7 +665,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Rousseau indique qu'il en trouva à Ménilmontant dans Les Rêveries du promeneur solitaire.
 </t>
